--- a/downloaded_files/EECS100_Lecture-35755.xlsx
+++ b/downloaded_files/EECS100_Lecture-35755.xlsx
@@ -708,7 +708,7 @@
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="30.620625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="53.220625" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="15.110625" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
     <x:col min="15" max="20" width="3.960625" style="0" customWidth="1"/>
   </x:cols>
@@ -1493,7 +1493,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.4332135069</x:v>
+        <x:v>45927.4333722569</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>

--- a/downloaded_files/EECS100_Lecture-35755.xlsx
+++ b/downloaded_files/EECS100_Lecture-35755.xlsx
@@ -186,6 +186,15 @@
     <x:t>Karim Tarek Abdalla</x:t>
   </x:si>
   <x:si>
+    <x:t>1230245</x:t>
+  </x:si>
+  <x:si>
+    <x:t>محمد خالد ابواليزيد شلبي</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mohamed Khaled Abouelyazid Shalaby</x:t>
+  </x:si>
+  <x:si>
     <x:t>1230114</x:t>
   </x:si>
   <x:si>
@@ -229,15 +238,6 @@
   </x:si>
   <x:si>
     <x:t>Nour Islam Mahmoud Elsayed Attia</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1230273</x:t>
-  </x:si>
-  <x:si>
-    <x:t>نور الدين سامى حموده بكر</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Nour Eldin Samy Hammouda Bakr</x:t>
   </x:si>
   <x:si>
     <x:t>1230122</x:t>
@@ -708,7 +708,7 @@
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="30.620625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="53.220625" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="15.110625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
     <x:col min="15" max="20" width="3.960625" style="0" customWidth="1"/>
   </x:cols>
@@ -1333,7 +1333,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.4200175116</x:v>
+        <x:v>45907.414474919</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1365,7 +1365,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.415046956</x:v>
+        <x:v>45907.4200175116</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1397,7 +1397,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.4377122338</x:v>
+        <x:v>45907.415046956</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1429,7 +1429,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.4200846412</x:v>
+        <x:v>45907.4377122338</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1461,7 +1461,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.4192483449</x:v>
+        <x:v>45907.4200846412</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1493,7 +1493,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45927.4333722569</x:v>
+        <x:v>45907.4192483449</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>

--- a/downloaded_files/EECS100_Lecture-35755.xlsx
+++ b/downloaded_files/EECS100_Lecture-35755.xlsx
@@ -84,7 +84,7 @@
     <x:t>احمد محمد فاروق محمد</x:t>
   </x:si>
   <x:si>
-    <x:t>ahmed mohamed farouk mohamed mohamed soltan</x:t>
+    <x:t xml:space="preserve">Ahmed Mohamed Farouk Mohamed  </x:t>
   </x:si>
   <x:si>
     <x:t>1230156</x:t>

--- a/downloaded_files/EECS100_Lecture-35755.xlsx
+++ b/downloaded_files/EECS100_Lecture-35755.xlsx
@@ -129,7 +129,7 @@
     <x:t>رنا احمد محمد سمير محمد فهمى الغرباوى</x:t>
   </x:si>
   <x:si>
-    <x:t>Rana ahmed mohamed samir mohamed fahmy elgharabawy</x:t>
+    <x:t>RANA AHMED MOHAMED SAMIR MOHAMED FAHMY EIGHARABAWY</x:t>
   </x:si>
   <x:si>
     <x:t>1230205</x:t>
@@ -174,16 +174,16 @@
     <x:t>فرح مدحت محمد حسن شرشر</x:t>
   </x:si>
   <x:si>
-    <x:t>Farah medhat mohamed hassan sharshar</x:t>
+    <x:t>Farah Medhat Mohamed Hassan Sharshar</x:t>
   </x:si>
   <x:si>
     <x:t>1230226</x:t>
   </x:si>
   <x:si>
-    <x:t>كريم طارق عبد الله عبد الحليم</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Karim Tarek Abdalla</x:t>
+    <x:t>كريم طارق عبد الله عبد الحليم عبدالمنعم</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Karim Tarek Abdullah Abdelhalim Abdelmonem</x:t>
   </x:si>
   <x:si>
     <x:t>1230245</x:t>
@@ -255,7 +255,7 @@
     <x:t>نورهان أيمن منصور أحمد ندا</x:t>
   </x:si>
   <x:si>
-    <x:t>Norhan Ayman Mansour Ahmed Nada</x:t>
+    <x:t>NORHAN AYMAN MANSOUR AHMED NADA</x:t>
   </x:si>
   <x:si>
     <x:t>1230126</x:t>
@@ -707,7 +707,7 @@
     <x:col min="1" max="1" width="9.190625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="30.620625" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="53.220625" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="60.720625" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="15.110625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
     <x:col min="15" max="20" width="3.960625" style="0" customWidth="1"/>

--- a/downloaded_files/EECS100_Lecture-35755.xlsx
+++ b/downloaded_files/EECS100_Lecture-35755.xlsx
@@ -1676,11 +1676,11 @@
   <x:pageMargins left="0.18" right="0.18" top="0.6" bottom="0.6" header="0.3" footer="0.3"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
   <x:headerFooter differentOddEven="0" differentFirst="0" scaleWithDoc="1" alignWithMargins="1">
-    <x:oddHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Laboratory (EECS100) Location : [20426]20426-32-الجيزة الرئيسي Time : Monday(11:13)</x:oddHeader>
+    <x:oddHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Laboratory (EECS100) Location : [20426]20426-32-الجيزة الرئيسي Time : Monday(11:12)</x:oddHeader>
     <x:oddFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:oddFooter>
-    <x:evenHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Laboratory (EECS100) Location : [20426]20426-32-الجيزة الرئيسي Time : Monday(11:13)</x:evenHeader>
+    <x:evenHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Laboratory (EECS100) Location : [20426]20426-32-الجيزة الرئيسي Time : Monday(11:12)</x:evenHeader>
     <x:evenFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:evenFooter>
-    <x:firstHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Laboratory (EECS100) Location : [20426]20426-32-الجيزة الرئيسي Time : Monday(11:13)</x:firstHeader>
+    <x:firstHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Laboratory (EECS100) Location : [20426]20426-32-الجيزة الرئيسي Time : Monday(11:12)</x:firstHeader>
     <x:firstFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:firstFooter>
   </x:headerFooter>
   <x:tableParts count="1">
